--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1378426666666667</v>
+        <v>3.473079333333333</v>
       </c>
       <c r="H2">
-        <v>0.413528</v>
+        <v>10.419238</v>
       </c>
       <c r="I2">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326942</v>
       </c>
       <c r="J2">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326943</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.393808333333333</v>
+        <v>4.021066666666667</v>
       </c>
       <c r="N2">
-        <v>4.181425</v>
+        <v>12.0632</v>
       </c>
       <c r="O2">
-        <v>0.01389847670528153</v>
+        <v>0.0266528412086261</v>
       </c>
       <c r="P2">
-        <v>0.01389847670528152</v>
+        <v>0.0266528412086261</v>
       </c>
       <c r="Q2">
-        <v>0.1921262574888889</v>
+        <v>13.96548353795556</v>
       </c>
       <c r="R2">
-        <v>1.7291363174</v>
+        <v>125.6893518416</v>
       </c>
       <c r="S2">
-        <v>4.162133556723395E-07</v>
+        <v>1.518361271578613E-05</v>
       </c>
       <c r="T2">
-        <v>4.162133556723394E-07</v>
+        <v>1.518361271578614E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>27</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1378426666666667</v>
+        <v>3.473079333333333</v>
       </c>
       <c r="H3">
-        <v>0.413528</v>
+        <v>10.419238</v>
       </c>
       <c r="I3">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326942</v>
       </c>
       <c r="J3">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326943</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>29.295818</v>
       </c>
       <c r="O3">
-        <v>0.09737523548435455</v>
+        <v>0.06472716901243536</v>
       </c>
       <c r="P3">
-        <v>0.09737523548435453</v>
+        <v>0.06472716901243537</v>
       </c>
       <c r="Q3">
-        <v>1.346071225100444</v>
+        <v>33.91556668296489</v>
       </c>
       <c r="R3">
-        <v>12.114641025904</v>
+        <v>305.240100146684</v>
       </c>
       <c r="S3">
-        <v>2.916065866766982E-06</v>
+        <v>3.687382740103424E-05</v>
       </c>
       <c r="T3">
-        <v>2.916065866766981E-06</v>
+        <v>3.687382740103426E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1378426666666667</v>
+        <v>3.473079333333333</v>
       </c>
       <c r="H4">
-        <v>0.413528</v>
+        <v>10.419238</v>
       </c>
       <c r="I4">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326942</v>
       </c>
       <c r="J4">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326943</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.943370666666667</v>
+        <v>16.16775866666667</v>
       </c>
       <c r="N4">
-        <v>23.830112</v>
+        <v>48.503276</v>
       </c>
       <c r="O4">
-        <v>0.07920798687439085</v>
+        <v>0.1071647749623786</v>
       </c>
       <c r="P4">
-        <v>0.07920798687439085</v>
+        <v>0.1071647749623786</v>
       </c>
       <c r="Q4">
-        <v>1.094935395015111</v>
+        <v>56.15190849152089</v>
       </c>
       <c r="R4">
-        <v>9.854418555136</v>
+        <v>505.367176423688</v>
       </c>
       <c r="S4">
-        <v>2.37201692761862E-06</v>
+        <v>6.10497180044171E-05</v>
       </c>
       <c r="T4">
-        <v>2.37201692761862E-06</v>
+        <v>6.104971800441713E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1378426666666667</v>
+        <v>3.473079333333333</v>
       </c>
       <c r="H5">
-        <v>0.413528</v>
+        <v>10.419238</v>
       </c>
       <c r="I5">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326942</v>
       </c>
       <c r="J5">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326943</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.114546000000001</v>
+        <v>5.277637333333334</v>
       </c>
       <c r="N5">
-        <v>15.343638</v>
+        <v>15.832912</v>
       </c>
       <c r="O5">
-        <v>0.05100012443539522</v>
+        <v>0.03498177012783927</v>
       </c>
       <c r="P5">
-        <v>0.05100012443539521</v>
+        <v>0.03498177012783928</v>
       </c>
       <c r="Q5">
-        <v>0.7050026594293335</v>
+        <v>18.32965315122845</v>
       </c>
       <c r="R5">
-        <v>6.345023934864001</v>
+        <v>164.966878361056</v>
       </c>
       <c r="S5">
-        <v>1.527284851504362E-06</v>
+        <v>1.992844385993127E-05</v>
       </c>
       <c r="T5">
-        <v>1.527284851504362E-06</v>
+        <v>1.992844385993128E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1378426666666667</v>
+        <v>3.473079333333333</v>
       </c>
       <c r="H6">
-        <v>0.413528</v>
+        <v>10.419238</v>
       </c>
       <c r="I6">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326942</v>
       </c>
       <c r="J6">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326943</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.750823</v>
+        <v>108.7502723333333</v>
       </c>
       <c r="N6">
-        <v>215.252469</v>
+        <v>326.250817</v>
       </c>
       <c r="O6">
-        <v>0.7154693498390701</v>
+        <v>0.720829565926581</v>
       </c>
       <c r="P6">
-        <v>0.7154693498390701</v>
+        <v>0.7208295659265811</v>
       </c>
       <c r="Q6">
-        <v>9.890324777847999</v>
+        <v>377.6983233352718</v>
       </c>
       <c r="R6">
-        <v>89.012923000632</v>
+        <v>3399.284910017446</v>
       </c>
       <c r="S6">
-        <v>2.142593791333008E-05</v>
+        <v>0.0004106427857895761</v>
       </c>
       <c r="T6">
-        <v>2.142593791333008E-05</v>
+        <v>0.0004106427857895762</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1378426666666667</v>
+        <v>3.473079333333333</v>
       </c>
       <c r="H7">
-        <v>0.413528</v>
+        <v>10.419238</v>
       </c>
       <c r="I7">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326942</v>
       </c>
       <c r="J7">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326943</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.317150333333333</v>
+        <v>6.886210666666667</v>
       </c>
       <c r="N7">
-        <v>12.951451</v>
+        <v>20.658632</v>
       </c>
       <c r="O7">
-        <v>0.04304882666150777</v>
+        <v>0.04564387876213955</v>
       </c>
       <c r="P7">
-        <v>0.04304882666150777</v>
+        <v>0.04564387876213956</v>
       </c>
       <c r="Q7">
-        <v>0.5950875143475556</v>
+        <v>23.91635595137955</v>
       </c>
       <c r="R7">
-        <v>5.355787629128001</v>
+        <v>215.247203562416</v>
       </c>
       <c r="S7">
-        <v>1.289169812094173E-06</v>
+        <v>2.600244276194926E-05</v>
       </c>
       <c r="T7">
-        <v>1.289169812094173E-06</v>
+        <v>2.600244276194927E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>204.139764</v>
+        <v>373.1989643333333</v>
       </c>
       <c r="H8">
-        <v>612.419292</v>
+        <v>1119.596893</v>
       </c>
       <c r="I8">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="J8">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.393808333333333</v>
+        <v>4.021066666666667</v>
       </c>
       <c r="N8">
-        <v>4.181425</v>
+        <v>12.0632</v>
       </c>
       <c r="O8">
-        <v>0.01389847670528153</v>
+        <v>0.0266528412086261</v>
       </c>
       <c r="P8">
-        <v>0.01389847670528152</v>
+        <v>0.0266528412086261</v>
       </c>
       <c r="Q8">
-        <v>284.5317042279</v>
+        <v>1500.657915515289</v>
       </c>
       <c r="R8">
-        <v>2560.7853380511</v>
+        <v>13505.9212396376</v>
       </c>
       <c r="S8">
-        <v>0.0006163962019543981</v>
+        <v>0.001631551714348924</v>
       </c>
       <c r="T8">
-        <v>0.000616396201954398</v>
+        <v>0.001631551714348924</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>204.139764</v>
+        <v>373.1989643333333</v>
       </c>
       <c r="H9">
-        <v>612.419292</v>
+        <v>1119.596893</v>
       </c>
       <c r="I9">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="J9">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>29.295818</v>
       </c>
       <c r="O9">
-        <v>0.09737523548435455</v>
+        <v>0.06472716901243536</v>
       </c>
       <c r="P9">
-        <v>0.09737523548435453</v>
+        <v>0.06472716901243537</v>
       </c>
       <c r="Q9">
-        <v>1993.480457568984</v>
+        <v>3644.389645632608</v>
       </c>
       <c r="R9">
-        <v>17941.32411812085</v>
+        <v>32799.50681069347</v>
       </c>
       <c r="S9">
-        <v>0.004318583006593994</v>
+        <v>0.003962268890605647</v>
       </c>
       <c r="T9">
-        <v>0.004318583006593994</v>
+        <v>0.003962268890605648</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>204.139764</v>
+        <v>373.1989643333333</v>
       </c>
       <c r="H10">
-        <v>612.419292</v>
+        <v>1119.596893</v>
       </c>
       <c r="I10">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="J10">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.943370666666667</v>
+        <v>16.16775866666667</v>
       </c>
       <c r="N10">
-        <v>23.830112</v>
+        <v>48.503276</v>
       </c>
       <c r="O10">
-        <v>0.07920798687439085</v>
+        <v>0.1071647749623786</v>
       </c>
       <c r="P10">
-        <v>0.07920798687439085</v>
+        <v>0.1071647749623786</v>
       </c>
       <c r="Q10">
-        <v>1621.557813257856</v>
+        <v>6033.790789991274</v>
       </c>
       <c r="R10">
-        <v>14594.02031932071</v>
+        <v>54304.11710992146</v>
       </c>
       <c r="S10">
-        <v>0.0035128671514969</v>
+        <v>0.006560083817671844</v>
       </c>
       <c r="T10">
-        <v>0.0035128671514969</v>
+        <v>0.006560083817671845</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>204.139764</v>
+        <v>373.1989643333333</v>
       </c>
       <c r="H11">
-        <v>612.419292</v>
+        <v>1119.596893</v>
       </c>
       <c r="I11">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="J11">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.114546000000001</v>
+        <v>5.277637333333334</v>
       </c>
       <c r="N11">
-        <v>15.343638</v>
+        <v>15.832912</v>
       </c>
       <c r="O11">
-        <v>0.05100012443539522</v>
+        <v>0.03498177012783927</v>
       </c>
       <c r="P11">
-        <v>0.05100012443539521</v>
+        <v>0.03498177012783928</v>
       </c>
       <c r="Q11">
-        <v>1044.082213407144</v>
+        <v>1969.608786926935</v>
       </c>
       <c r="R11">
-        <v>9396.739920664299</v>
+        <v>17726.47908234242</v>
       </c>
       <c r="S11">
-        <v>0.002261850968835548</v>
+        <v>0.002141406485570631</v>
       </c>
       <c r="T11">
-        <v>0.002261850968835547</v>
+        <v>0.002141406485570632</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>204.139764</v>
+        <v>373.1989643333333</v>
       </c>
       <c r="H12">
-        <v>612.419292</v>
+        <v>1119.596893</v>
       </c>
       <c r="I12">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="J12">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>71.750823</v>
+        <v>108.7502723333333</v>
       </c>
       <c r="N12">
-        <v>215.252469</v>
+        <v>326.250817</v>
       </c>
       <c r="O12">
-        <v>0.7154693498390701</v>
+        <v>0.720829565926581</v>
       </c>
       <c r="P12">
-        <v>0.7154693498390701</v>
+        <v>0.7208295659265811</v>
       </c>
       <c r="Q12">
-        <v>14647.19607402577</v>
+        <v>40585.48900576795</v>
       </c>
       <c r="R12">
-        <v>131824.764666232</v>
+        <v>365269.4010519115</v>
       </c>
       <c r="S12">
-        <v>0.03173100183619384</v>
+        <v>0.04412552886332705</v>
       </c>
       <c r="T12">
-        <v>0.03173100183619384</v>
+        <v>0.04412552886332705</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>204.139764</v>
+        <v>373.1989643333333</v>
       </c>
       <c r="H13">
-        <v>612.419292</v>
+        <v>1119.596893</v>
       </c>
       <c r="I13">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="J13">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.317150333333333</v>
+        <v>6.886210666666667</v>
       </c>
       <c r="N13">
-        <v>12.951451</v>
+        <v>20.658632</v>
       </c>
       <c r="O13">
-        <v>0.04304882666150777</v>
+        <v>0.04564387876213955</v>
       </c>
       <c r="P13">
-        <v>0.04304882666150777</v>
+        <v>0.04564387876213956</v>
       </c>
       <c r="Q13">
-        <v>881.302050199188</v>
+        <v>2569.926688981153</v>
       </c>
       <c r="R13">
-        <v>7931.718451792693</v>
+        <v>23129.34020083037</v>
       </c>
       <c r="S13">
-        <v>0.001909211621922788</v>
+        <v>0.002794086681452975</v>
       </c>
       <c r="T13">
-        <v>0.001909211621922788</v>
+        <v>0.002794086681452976</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04715733333333334</v>
+        <v>0.04715733333333333</v>
       </c>
       <c r="H14">
         <v>0.141472</v>
       </c>
       <c r="I14">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="J14">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.393808333333333</v>
+        <v>4.021066666666667</v>
       </c>
       <c r="N14">
-        <v>4.181425</v>
+        <v>12.0632</v>
       </c>
       <c r="O14">
-        <v>0.01389847670528153</v>
+        <v>0.0266528412086261</v>
       </c>
       <c r="P14">
-        <v>0.01389847670528152</v>
+        <v>0.0266528412086261</v>
       </c>
       <c r="Q14">
-        <v>0.06572828417777778</v>
+        <v>0.1896227811555556</v>
       </c>
       <c r="R14">
-        <v>0.5915545576000001</v>
+        <v>1.7066050304</v>
       </c>
       <c r="S14">
-        <v>1.423906866129433E-07</v>
+        <v>2.061624907817344E-07</v>
       </c>
       <c r="T14">
-        <v>1.423906866129433E-07</v>
+        <v>2.061624907817344E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04715733333333334</v>
+        <v>0.04715733333333333</v>
       </c>
       <c r="H15">
         <v>0.141472</v>
       </c>
       <c r="I15">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="J15">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>29.295818</v>
       </c>
       <c r="O15">
-        <v>0.09737523548435455</v>
+        <v>0.06472716901243536</v>
       </c>
       <c r="P15">
-        <v>0.09737523548435453</v>
+        <v>0.06472716901243537</v>
       </c>
       <c r="Q15">
-        <v>0.4605042182328889</v>
+        <v>0.4605042182328888</v>
       </c>
       <c r="R15">
         <v>4.144537964096</v>
       </c>
       <c r="S15">
-        <v>9.97614841808193E-07</v>
+        <v>5.006713648425265E-07</v>
       </c>
       <c r="T15">
-        <v>9.976148418081928E-07</v>
+        <v>5.006713648425266E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04715733333333334</v>
+        <v>0.04715733333333333</v>
       </c>
       <c r="H16">
         <v>0.141472</v>
       </c>
       <c r="I16">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="J16">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.943370666666667</v>
+        <v>16.16775866666667</v>
       </c>
       <c r="N16">
-        <v>23.830112</v>
+        <v>48.503276</v>
       </c>
       <c r="O16">
-        <v>0.07920798687439085</v>
+        <v>0.1071647749623786</v>
       </c>
       <c r="P16">
-        <v>0.07920798687439085</v>
+        <v>0.1071647749623786</v>
       </c>
       <c r="Q16">
-        <v>0.3745881783182222</v>
+        <v>0.7624283846968889</v>
       </c>
       <c r="R16">
-        <v>3.371293604864</v>
+        <v>6.861855462272</v>
       </c>
       <c r="S16">
-        <v>8.114903435415772E-07</v>
+        <v>8.289306478574437E-07</v>
       </c>
       <c r="T16">
-        <v>8.114903435415772E-07</v>
+        <v>8.289306478574438E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04715733333333334</v>
+        <v>0.04715733333333333</v>
       </c>
       <c r="H17">
         <v>0.141472</v>
       </c>
       <c r="I17">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="J17">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.114546000000001</v>
+        <v>5.277637333333334</v>
       </c>
       <c r="N17">
-        <v>15.343638</v>
+        <v>15.832912</v>
       </c>
       <c r="O17">
-        <v>0.05100012443539522</v>
+        <v>0.03498177012783927</v>
       </c>
       <c r="P17">
-        <v>0.05100012443539521</v>
+        <v>0.03498177012783928</v>
       </c>
       <c r="Q17">
-        <v>0.2411883505706667</v>
+        <v>0.2488793029404444</v>
       </c>
       <c r="R17">
-        <v>2.170695155136</v>
+        <v>2.239913726464</v>
       </c>
       <c r="S17">
-        <v>5.224991838812004E-07</v>
+        <v>2.705876197234573E-07</v>
       </c>
       <c r="T17">
-        <v>5.224991838812003E-07</v>
+        <v>2.705876197234574E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.04715733333333334</v>
+        <v>0.04715733333333333</v>
       </c>
       <c r="H18">
         <v>0.141472</v>
       </c>
       <c r="I18">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="J18">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>71.750823</v>
+        <v>108.7502723333333</v>
       </c>
       <c r="N18">
-        <v>215.252469</v>
+        <v>326.250817</v>
       </c>
       <c r="O18">
-        <v>0.7154693498390701</v>
+        <v>0.720829565926581</v>
       </c>
       <c r="P18">
-        <v>0.7154693498390701</v>
+        <v>0.7208295659265811</v>
       </c>
       <c r="Q18">
-        <v>3.383577477152</v>
+        <v>5.128372842513777</v>
       </c>
       <c r="R18">
-        <v>30.452197294368</v>
+        <v>46.15535558262399</v>
       </c>
       <c r="S18">
-        <v>7.330024299381501E-06</v>
+        <v>5.575691446075319E-06</v>
       </c>
       <c r="T18">
-        <v>7.330024299381501E-06</v>
+        <v>5.575691446075319E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.04715733333333334</v>
+        <v>0.04715733333333333</v>
       </c>
       <c r="H19">
         <v>0.141472</v>
       </c>
       <c r="I19">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="J19">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.317150333333333</v>
+        <v>6.886210666666667</v>
       </c>
       <c r="N19">
-        <v>12.951451</v>
+        <v>20.658632</v>
       </c>
       <c r="O19">
-        <v>0.04304882666150777</v>
+        <v>0.04564387876213955</v>
       </c>
       <c r="P19">
-        <v>0.04304882666150777</v>
+        <v>0.04564387876213956</v>
       </c>
       <c r="Q19">
-        <v>0.2035852973191111</v>
+        <v>0.3247353318115556</v>
       </c>
       <c r="R19">
-        <v>1.832267675872</v>
+        <v>2.922617986304</v>
       </c>
       <c r="S19">
-        <v>4.410376846467152E-07</v>
+        <v>3.530601357237915E-07</v>
       </c>
       <c r="T19">
-        <v>4.410376846467152E-07</v>
+        <v>3.530601357237916E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4022.527425333334</v>
+        <v>5653.156087333333</v>
       </c>
       <c r="H20">
-        <v>12067.582276</v>
+        <v>16959.468262</v>
       </c>
       <c r="I20">
-        <v>0.8739048628065621</v>
+        <v>0.9272735650043724</v>
       </c>
       <c r="J20">
-        <v>0.873904862806562</v>
+        <v>0.9272735650043725</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.393808333333333</v>
+        <v>4.021066666666667</v>
       </c>
       <c r="N20">
-        <v>4.181425</v>
+        <v>12.0632</v>
       </c>
       <c r="O20">
-        <v>0.01389847670528153</v>
+        <v>0.0266528412086261</v>
       </c>
       <c r="P20">
-        <v>0.01389847670528152</v>
+        <v>0.0266528412086261</v>
       </c>
       <c r="Q20">
-        <v>5606.632246491478</v>
+        <v>22731.71750423982</v>
       </c>
       <c r="R20">
-        <v>50459.6902184233</v>
+        <v>204585.4575381584</v>
       </c>
       <c r="S20">
-        <v>0.01214594637834925</v>
+        <v>0.02471447508501817</v>
       </c>
       <c r="T20">
-        <v>0.01214594637834925</v>
+        <v>0.02471447508501818</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4022.527425333334</v>
+        <v>5653.156087333333</v>
       </c>
       <c r="H21">
-        <v>12067.582276</v>
+        <v>16959.468262</v>
       </c>
       <c r="I21">
-        <v>0.8739048628065621</v>
+        <v>0.9272735650043724</v>
       </c>
       <c r="J21">
-        <v>0.873904862806562</v>
+        <v>0.9272735650043725</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>29.295818</v>
       </c>
       <c r="O21">
-        <v>0.09737523548435455</v>
+        <v>0.06472716901243536</v>
       </c>
       <c r="P21">
-        <v>0.09737523548435453</v>
+        <v>0.06472716901243537</v>
       </c>
       <c r="Q21">
-        <v>39281.07711752464</v>
+        <v>55204.61062003647</v>
       </c>
       <c r="R21">
-        <v>353529.6940577218</v>
+        <v>496841.4955803283</v>
       </c>
       <c r="S21">
-        <v>0.08509669180671153</v>
+        <v>0.06001979276280148</v>
       </c>
       <c r="T21">
-        <v>0.08509669180671152</v>
+        <v>0.0600197927628015</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4022.527425333334</v>
+        <v>5653.156087333333</v>
       </c>
       <c r="H22">
-        <v>12067.582276</v>
+        <v>16959.468262</v>
       </c>
       <c r="I22">
-        <v>0.8739048628065621</v>
+        <v>0.9272735650043724</v>
       </c>
       <c r="J22">
-        <v>0.873904862806562</v>
+        <v>0.9272735650043725</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.943370666666667</v>
+        <v>16.16775866666667</v>
       </c>
       <c r="N22">
-        <v>23.830112</v>
+        <v>48.503276</v>
       </c>
       <c r="O22">
-        <v>0.07920798687439085</v>
+        <v>0.1071647749623786</v>
       </c>
       <c r="P22">
-        <v>0.07920798687439085</v>
+        <v>0.1071647749623786</v>
       </c>
       <c r="Q22">
-        <v>31952.42635625499</v>
+        <v>91398.86332500292</v>
       </c>
       <c r="R22">
-        <v>287571.8372062949</v>
+        <v>822589.7699250262</v>
       </c>
       <c r="S22">
-        <v>0.0692202449026485</v>
+        <v>0.0993710629222561</v>
       </c>
       <c r="T22">
-        <v>0.0692202449026485</v>
+        <v>0.09937106292225613</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4022.527425333334</v>
+        <v>5653.156087333333</v>
       </c>
       <c r="H23">
-        <v>12067.582276</v>
+        <v>16959.468262</v>
       </c>
       <c r="I23">
-        <v>0.8739048628065621</v>
+        <v>0.9272735650043724</v>
       </c>
       <c r="J23">
-        <v>0.873904862806562</v>
+        <v>0.9272735650043725</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.114546000000001</v>
+        <v>5.277637333333334</v>
       </c>
       <c r="N23">
-        <v>15.343638</v>
+        <v>15.832912</v>
       </c>
       <c r="O23">
-        <v>0.05100012443539522</v>
+        <v>0.03498177012783927</v>
       </c>
       <c r="P23">
-        <v>0.05100012443539521</v>
+        <v>0.03498177012783928</v>
       </c>
       <c r="Q23">
-        <v>20573.4015531289</v>
+        <v>29835.30761767099</v>
       </c>
       <c r="R23">
-        <v>185160.6139781601</v>
+        <v>268517.7685590389</v>
       </c>
       <c r="S23">
-        <v>0.04456925674783165</v>
+        <v>0.03243767069660498</v>
       </c>
       <c r="T23">
-        <v>0.04456925674783165</v>
+        <v>0.03243767069660499</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4022.527425333334</v>
+        <v>5653.156087333333</v>
       </c>
       <c r="H24">
-        <v>12067.582276</v>
+        <v>16959.468262</v>
       </c>
       <c r="I24">
-        <v>0.8739048628065621</v>
+        <v>0.9272735650043724</v>
       </c>
       <c r="J24">
-        <v>0.873904862806562</v>
+        <v>0.9272735650043725</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.750823</v>
+        <v>108.7502723333333</v>
       </c>
       <c r="N24">
-        <v>215.252469</v>
+        <v>326.250817</v>
       </c>
       <c r="O24">
-        <v>0.7154693498390701</v>
+        <v>0.720829565926581</v>
       </c>
       <c r="P24">
-        <v>0.7154693498390701</v>
+        <v>0.7208295659265811</v>
       </c>
       <c r="Q24">
-        <v>288619.6533077377</v>
+        <v>614782.264040341</v>
       </c>
       <c r="R24">
-        <v>2597576.87976964</v>
+        <v>5533040.37636307</v>
       </c>
       <c r="S24">
-        <v>0.6252521440134127</v>
+        <v>0.668406201357295</v>
       </c>
       <c r="T24">
-        <v>0.6252521440134127</v>
+        <v>0.6684062013572952</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4022.527425333334</v>
+        <v>5653.156087333333</v>
       </c>
       <c r="H25">
-        <v>12067.582276</v>
+        <v>16959.468262</v>
       </c>
       <c r="I25">
-        <v>0.8739048628065621</v>
+        <v>0.9272735650043724</v>
       </c>
       <c r="J25">
-        <v>0.873904862806562</v>
+        <v>0.9272735650043725</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.317150333333333</v>
+        <v>6.886210666666667</v>
       </c>
       <c r="N25">
-        <v>12.951451</v>
+        <v>20.658632</v>
       </c>
       <c r="O25">
-        <v>0.04304882666150777</v>
+        <v>0.04564387876213955</v>
       </c>
       <c r="P25">
-        <v>0.04304882666150777</v>
+        <v>0.04564387876213956</v>
       </c>
       <c r="Q25">
-        <v>17365.85561512028</v>
+        <v>38928.8237489264</v>
       </c>
       <c r="R25">
-        <v>156292.7005360825</v>
+        <v>350359.4137403376</v>
       </c>
       <c r="S25">
-        <v>0.03762057895760842</v>
+        <v>0.0423243621803965</v>
       </c>
       <c r="T25">
-        <v>0.03762057895760842</v>
+        <v>0.04232436218039651</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>376.0829773333333</v>
+        <v>66.66008233333334</v>
       </c>
       <c r="H26">
-        <v>1128.248932</v>
+        <v>199.980247</v>
       </c>
       <c r="I26">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="J26">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.393808333333333</v>
+        <v>4.021066666666667</v>
       </c>
       <c r="N26">
-        <v>4.181425</v>
+        <v>12.0632</v>
       </c>
       <c r="O26">
-        <v>0.01389847670528153</v>
+        <v>0.0266528412086261</v>
       </c>
       <c r="P26">
-        <v>0.01389847670528152</v>
+        <v>0.0266528412086261</v>
       </c>
       <c r="Q26">
-        <v>524.1875878320111</v>
+        <v>268.0446350678222</v>
       </c>
       <c r="R26">
-        <v>4717.688290488099</v>
+        <v>2412.4017156104</v>
       </c>
       <c r="S26">
-        <v>0.001135575520935591</v>
+        <v>0.0002914246340524376</v>
       </c>
       <c r="T26">
-        <v>0.001135575520935591</v>
+        <v>0.0002914246340524377</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>376.0829773333333</v>
+        <v>66.66008233333334</v>
       </c>
       <c r="H27">
-        <v>1128.248932</v>
+        <v>199.980247</v>
       </c>
       <c r="I27">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="J27">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>29.295818</v>
       </c>
       <c r="O27">
-        <v>0.09737523548435455</v>
+        <v>0.06472716901243536</v>
       </c>
       <c r="P27">
-        <v>0.09737523548435453</v>
+        <v>0.06472716901243537</v>
       </c>
       <c r="Q27">
-        <v>3672.552818951819</v>
+        <v>650.9538799674496</v>
       </c>
       <c r="R27">
-        <v>33052.97537056638</v>
+        <v>5858.584919707047</v>
       </c>
       <c r="S27">
-        <v>0.007956046990340439</v>
+        <v>0.0007077328602623529</v>
       </c>
       <c r="T27">
-        <v>0.007956046990340438</v>
+        <v>0.0007077328602623531</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>376.0829773333333</v>
+        <v>66.66008233333334</v>
       </c>
       <c r="H28">
-        <v>1128.248932</v>
+        <v>199.980247</v>
       </c>
       <c r="I28">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="J28">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.943370666666667</v>
+        <v>16.16775866666667</v>
       </c>
       <c r="N28">
-        <v>23.830112</v>
+        <v>48.503276</v>
       </c>
       <c r="O28">
-        <v>0.07920798687439085</v>
+        <v>0.1071647749623786</v>
       </c>
       <c r="P28">
-        <v>0.07920798687439085</v>
+        <v>0.1071647749623786</v>
       </c>
       <c r="Q28">
-        <v>2987.366490382265</v>
+        <v>1077.744123865464</v>
       </c>
       <c r="R28">
-        <v>26886.29841344038</v>
+        <v>9699.697114789173</v>
       </c>
       <c r="S28">
-        <v>0.006471691312974281</v>
+        <v>0.00117174957379836</v>
       </c>
       <c r="T28">
-        <v>0.006471691312974281</v>
+        <v>0.001171749573798361</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>376.0829773333333</v>
+        <v>66.66008233333334</v>
       </c>
       <c r="H29">
-        <v>1128.248932</v>
+        <v>199.980247</v>
       </c>
       <c r="I29">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="J29">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.114546000000001</v>
+        <v>5.277637333333334</v>
       </c>
       <c r="N29">
-        <v>15.343638</v>
+        <v>15.832912</v>
       </c>
       <c r="O29">
-        <v>0.05100012443539522</v>
+        <v>0.03498177012783927</v>
       </c>
       <c r="P29">
-        <v>0.05100012443539521</v>
+        <v>0.03498177012783928</v>
       </c>
       <c r="Q29">
-        <v>1923.493687388291</v>
+        <v>351.8077391654738</v>
       </c>
       <c r="R29">
-        <v>17311.44318649462</v>
+        <v>3166.269652489264</v>
       </c>
       <c r="S29">
-        <v>0.004166966934692632</v>
+        <v>0.0003824939141840016</v>
       </c>
       <c r="T29">
-        <v>0.004166966934692631</v>
+        <v>0.0003824939141840017</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>376.0829773333333</v>
+        <v>66.66008233333334</v>
       </c>
       <c r="H30">
-        <v>1128.248932</v>
+        <v>199.980247</v>
       </c>
       <c r="I30">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="J30">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>71.750823</v>
+        <v>108.7502723333333</v>
       </c>
       <c r="N30">
-        <v>215.252469</v>
+        <v>326.250817</v>
       </c>
       <c r="O30">
-        <v>0.7154693498390701</v>
+        <v>0.720829565926581</v>
       </c>
       <c r="P30">
-        <v>0.7154693498390701</v>
+        <v>0.7208295659265811</v>
       </c>
       <c r="Q30">
-        <v>26984.26313995701</v>
+        <v>7249.302107512422</v>
       </c>
       <c r="R30">
-        <v>242858.3682596131</v>
+        <v>65243.7189676118</v>
       </c>
       <c r="S30">
-        <v>0.0584574480272508</v>
+        <v>0.007881617228723206</v>
       </c>
       <c r="T30">
-        <v>0.0584574480272508</v>
+        <v>0.007881617228723209</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>376.0829773333333</v>
+        <v>66.66008233333334</v>
       </c>
       <c r="H31">
-        <v>1128.248932</v>
+        <v>199.980247</v>
       </c>
       <c r="I31">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="J31">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.317150333333333</v>
+        <v>6.886210666666667</v>
       </c>
       <c r="N31">
-        <v>12.951451</v>
+        <v>20.658632</v>
       </c>
       <c r="O31">
-        <v>0.04304882666150777</v>
+        <v>0.04564387876213955</v>
       </c>
       <c r="P31">
-        <v>0.04304882666150777</v>
+        <v>0.04564387876213956</v>
       </c>
       <c r="Q31">
-        <v>1623.606750955592</v>
+        <v>459.0353700046783</v>
       </c>
       <c r="R31">
-        <v>14612.46075860033</v>
+        <v>4131.318330042104</v>
       </c>
       <c r="S31">
-        <v>0.003517305874479821</v>
+        <v>0.0004990743973923981</v>
       </c>
       <c r="T31">
-        <v>0.003517305874479821</v>
+        <v>0.0004990743973923984</v>
       </c>
     </row>
   </sheetData>
